--- a/SearchingCard.xlsx
+++ b/SearchingCard.xlsx
@@ -20,102 +20,117 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
-  <si>
-    <t xml:space="preserve">Example</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Example 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Example 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Example 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Example 5</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
   <si>
     <t xml:space="preserve">Package</t>
   </si>
   <si>
+    <t xml:space="preserve">Version</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Software Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vendor Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Platform</t>
+  </si>
+  <si>
     <t xml:space="preserve">linux_kernel</t>
   </si>
   <si>
+    <t xml:space="preserve">3.18.48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Linux kernel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">linux</t>
+  </si>
+  <si>
     <t xml:space="preserve">curl</t>
   </si>
   <si>
+    <t xml:space="preserve">7.58.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Application</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Curl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Haxx</t>
+  </si>
+  <si>
     <t xml:space="preserve">network_monitor</t>
   </si>
   <si>
+    <t xml:space="preserve">5.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Network Monitor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10-strike</t>
+  </si>
+  <si>
     <t xml:space="preserve">easycreate</t>
   </si>
   <si>
+    <t xml:space="preserve">3.2.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Easycreate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iscripts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PHP</t>
+  </si>
+  <si>
     <t xml:space="preserve">globalprotect</t>
   </si>
   <si>
-    <t xml:space="preserve">Version</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.18.48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.58.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2.1</t>
-  </si>
-  <si>
     <t xml:space="preserve">5.0.0</t>
   </si>
   <si>
-    <t xml:space="preserve">Platform Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Application</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Product Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Linux kernel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Curl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Network Monitor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Easycreate</t>
-  </si>
-  <si>
     <t xml:space="preserve">Global Protect</t>
   </si>
   <si>
-    <t xml:space="preserve">Vendor Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">linux</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Haxx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10-strike</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iscripts</t>
-  </si>
-  <si>
     <t xml:space="preserve">Paloaltonetworks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">interscan_web_security_virtual_appliance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interscan Web Security Virtual Appliance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trendmicro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">metaframe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Citrix Metaframe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Citrix</t>
   </si>
 </sst>
 </file>
@@ -125,7 +140,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -147,12 +162,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <b val="true"/>
@@ -222,16 +231,16 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -311,140 +320,176 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G11" activeCellId="0" sqref="G11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="41.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="14.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="8" style="0" width="8.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="35.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="35.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="9.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="35.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1022" min="8" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1023" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="0" t="s">
+      <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="D2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="E2" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="B3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="C3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="D3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="E3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="0" t="s">
-        <v>16</v>
-      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="E4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>19</v>
-      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="B5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="C5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="E5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="0" t="s">
-        <v>25</v>
-      </c>
+      <c r="G5" s="3"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="E6" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="0" t="s">
+      <c r="B7" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="C7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>31</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/SearchingCard.xlsx
+++ b/SearchingCard.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="41">
   <si>
     <t xml:space="preserve">Package</t>
   </si>
@@ -131,6 +131,18 @@
   </si>
   <si>
     <t xml:space="preserve">Citrix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">itunes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iTunes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apple</t>
   </si>
 </sst>
 </file>
@@ -320,10 +332,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -492,6 +504,23 @@
         <v>36</v>
       </c>
     </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/SearchingCard.xlsx
+++ b/SearchingCard.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="38">
   <si>
     <t xml:space="preserve">Package</t>
   </si>
@@ -67,7 +67,7 @@
     <t xml:space="preserve">Curl</t>
   </si>
   <si>
-    <t xml:space="preserve">Haxx</t>
+    <t xml:space="preserve">haxx</t>
   </si>
   <si>
     <t xml:space="preserve">network_monitor</t>
@@ -91,7 +91,7 @@
     <t xml:space="preserve">Easycreate</t>
   </si>
   <si>
-    <t xml:space="preserve">Iscripts</t>
+    <t xml:space="preserve">iscripts</t>
   </si>
   <si>
     <t xml:space="preserve">PHP</t>
@@ -100,13 +100,16 @@
     <t xml:space="preserve">globalprotect</t>
   </si>
   <si>
-    <t xml:space="preserve">5.0.0</t>
+    <t xml:space="preserve">5.1.0</t>
   </si>
   <si>
     <t xml:space="preserve">Global Protect</t>
   </si>
   <si>
-    <t xml:space="preserve">Paloaltonetworks</t>
+    <t xml:space="preserve">paloaltonetworks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">macos</t>
   </si>
   <si>
     <t xml:space="preserve">interscan_web_security_virtual_appliance</t>
@@ -118,7 +121,7 @@
     <t xml:space="preserve">Interscan Web Security Virtual Appliance</t>
   </si>
   <si>
-    <t xml:space="preserve">Trendmicro</t>
+    <t xml:space="preserve">trendmicro</t>
   </si>
   <si>
     <t xml:space="preserve">metaframe</t>
@@ -130,19 +133,7 @@
     <t xml:space="preserve">Citrix Metaframe</t>
   </si>
   <si>
-    <t xml:space="preserve">Citrix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">itunes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iTunes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apple</t>
+    <t xml:space="preserve">citrix</t>
   </si>
 </sst>
 </file>
@@ -332,10 +323,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -465,60 +456,45 @@
       <c r="E6" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="3"/>
+      <c r="F6" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="G6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
         <v>37</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/SearchingCard.xlsx
+++ b/SearchingCard.xlsx
@@ -326,7 +326,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/SearchingCard.xlsx
+++ b/SearchingCard.xlsx
@@ -325,8 +325,8 @@
   </sheetPr>
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/SearchingCard.xlsx
+++ b/SearchingCard.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
   <si>
     <t xml:space="preserve">Package</t>
   </si>
@@ -100,16 +100,13 @@
     <t xml:space="preserve">globalprotect</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1.0</t>
+    <t xml:space="preserve">1.1.6</t>
   </si>
   <si>
     <t xml:space="preserve">Global Protect</t>
   </si>
   <si>
     <t xml:space="preserve">paloaltonetworks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">macos</t>
   </si>
   <si>
     <t xml:space="preserve">interscan_web_security_virtual_appliance</t>
@@ -325,8 +322,8 @@
   </sheetPr>
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -456,45 +453,43 @@
       <c r="E6" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>29</v>
-      </c>
+      <c r="F6" s="3"/>
       <c r="G6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>31</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>33</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="0" t="s">
         <v>34</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>35</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="0" t="s">
         <v>36</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/SearchingCard.xlsx
+++ b/SearchingCard.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t xml:space="preserve">Package</t>
   </si>
@@ -40,73 +40,16 @@
     <t xml:space="preserve">Platform</t>
   </si>
   <si>
-    <t xml:space="preserve">linux_kernel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.18.48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Linux kernel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">linux</t>
-  </si>
-  <si>
-    <t xml:space="preserve">curl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.58.0</t>
+    <t xml:space="preserve">security_secret_server</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6</t>
   </si>
   <si>
     <t xml:space="preserve">Application</t>
   </si>
   <si>
-    <t xml:space="preserve">Curl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">haxx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">network_monitor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Network Monitor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10-strike</t>
-  </si>
-  <si>
-    <t xml:space="preserve">easycreate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Easycreate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iscripts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PHP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">globalprotect</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Global Protect</t>
-  </si>
-  <si>
-    <t xml:space="preserve">paloaltonetworks</t>
+    <t xml:space="preserve">ibm</t>
   </si>
   <si>
     <t xml:space="preserve">interscan_web_security_virtual_appliance</t>
@@ -119,18 +62,6 @@
   </si>
   <si>
     <t xml:space="preserve">trendmicro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">metaframe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Citrix Metaframe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">citrix</t>
   </si>
 </sst>
 </file>
@@ -320,10 +251,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:F1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -360,7 +291,7 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="0" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -369,129 +300,36 @@
       <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="3"/>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>36</v>
-      </c>
-    </row>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/SearchingCard.xlsx
+++ b/SearchingCard.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
   <si>
     <t xml:space="preserve">Package</t>
   </si>
@@ -40,16 +40,73 @@
     <t xml:space="preserve">Platform</t>
   </si>
   <si>
-    <t xml:space="preserve">security_secret_server</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6</t>
+    <t xml:space="preserve">linux_kernel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.18.48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Linux kernel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">linux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">curl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.58.0</t>
   </si>
   <si>
     <t xml:space="preserve">Application</t>
   </si>
   <si>
-    <t xml:space="preserve">ibm</t>
+    <t xml:space="preserve">Curl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">haxx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">network_monitor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Network Monitor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10-strike</t>
+  </si>
+  <si>
+    <t xml:space="preserve">easycreate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Easycreate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iscripts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PHP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">globalprotect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Global Protect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">paloaltonetworks</t>
   </si>
   <si>
     <t xml:space="preserve">interscan_web_security_virtual_appliance</t>
@@ -62,6 +119,18 @@
   </si>
   <si>
     <t xml:space="preserve">trendmicro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">metaframe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Citrix Metaframe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">citrix</t>
   </si>
 </sst>
 </file>
@@ -251,10 +320,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F1048576"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -291,7 +360,7 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -300,36 +369,129 @@
       <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="D2" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="E2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="D4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/SearchingCard.xlsx
+++ b/SearchingCard.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
   <si>
     <t xml:space="preserve">Package</t>
   </si>
@@ -40,73 +40,58 @@
     <t xml:space="preserve">Platform</t>
   </si>
   <si>
-    <t xml:space="preserve">linux_kernel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.18.48</t>
+    <t xml:space="preserve">curl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.58.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Application</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Curl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">haxx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">network_monitor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Network Monitor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10-strike</t>
+  </si>
+  <si>
+    <t xml:space="preserve">easycreate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Easycreate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iscripts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PHP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f5c_router_firmware</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1.1.65150</t>
   </si>
   <si>
     <t xml:space="preserve">OS</t>
   </si>
   <si>
-    <t xml:space="preserve">Linux kernel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">linux</t>
-  </si>
-  <si>
-    <t xml:space="preserve">curl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.58.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Application</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Curl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">haxx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">network_monitor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Network Monitor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10-strike</t>
-  </si>
-  <si>
-    <t xml:space="preserve">easycreate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Easycreate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iscripts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PHP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">globalprotect</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Global Protect</t>
-  </si>
-  <si>
-    <t xml:space="preserve">paloaltonetworks</t>
+    <t xml:space="preserve">360</t>
   </si>
   <si>
     <t xml:space="preserve">interscan_web_security_virtual_appliance</t>
@@ -121,26 +106,28 @@
     <t xml:space="preserve">trendmicro</t>
   </si>
   <si>
-    <t xml:space="preserve">metaframe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Citrix Metaframe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">citrix</t>
+    <t xml:space="preserve">3cnj220</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0.22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hardware</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="@"/>
+    <numFmt numFmtId="166" formatCode="0"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -170,6 +157,12 @@
       <name val="Courier New"/>
       <family val="1"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -226,21 +219,57 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -320,16 +349,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="35.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="35.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15.26"/>
@@ -340,158 +369,136 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
+      <c r="B4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
+      <c r="G4" s="6"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="C5" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="3" t="s">
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="3"/>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
+      <c r="B6" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="3" t="s">
+      <c r="E6" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
+      <c r="B7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="C7" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="3" t="s">
+      <c r="E7" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>36</v>
-      </c>
-    </row>
+    </row>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/SearchingCard.xlsx
+++ b/SearchingCard.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
   <si>
     <t xml:space="preserve">Package</t>
   </si>
@@ -79,9 +79,6 @@
     <t xml:space="preserve">iscripts</t>
   </si>
   <si>
-    <t xml:space="preserve">PHP</t>
-  </si>
-  <si>
     <t xml:space="preserve">f5c_router_firmware</t>
   </si>
   <si>
@@ -116,6 +113,18 @@
   </si>
   <si>
     <t xml:space="preserve">3com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">firefox</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mozilla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">android</t>
   </si>
 </sst>
 </file>
@@ -127,7 +136,7 @@
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="0"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -157,12 +166,6 @@
       <name val="Courier New"/>
       <family val="1"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -219,16 +222,8 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -248,23 +243,15 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -351,14 +338,14 @@
   </sheetPr>
   <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="35.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="35.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15.26"/>
@@ -369,129 +356,144 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="6"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="C5" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="E5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="10" t="s">
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="s">
+      <c r="B6" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="C6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="6" t="s">
+      <c r="E6" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="E7" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="12" t="s">
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
         <v>31</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
